--- a/Datos_tabulados/Survavi_microbial_EOs_.xlsx
+++ b/Datos_tabulados/Survavi_microbial_EOs_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Tarea_DBT854\Datos_tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8AC9F-AA09-4889-A598-7C86CA407701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30BABD-4198-4F04-B96E-C424B572FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3E8431F-F26D-485F-9201-47E63157ABE8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="13">
   <si>
     <t>EOs</t>
   </si>
@@ -49,43 +49,31 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Ac. 15_EOs4</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camarón </t>
   </si>
   <si>
-    <t>Control</t>
+    <t>BL</t>
   </si>
   <si>
-    <t>EOs2</t>
+    <t>CT</t>
   </si>
   <si>
-    <t>EOs3</t>
+    <t>EO2</t>
   </si>
   <si>
-    <t>EOs4</t>
+    <t>EO3</t>
   </si>
   <si>
-    <t>EOs9</t>
+    <t>EO4</t>
   </si>
   <si>
-    <t>EO2_EOs4</t>
+    <t>EO9</t>
   </si>
   <si>
-    <t>EOs2_EOs4</t>
+    <t>EO2_4</t>
   </si>
   <si>
-    <t>EOs2_EO4</t>
-  </si>
-  <si>
-    <t>EOs2_EOs3_EOs4</t>
-  </si>
-  <si>
-    <t>EOs2_EOs3_EO4</t>
+    <t>EO2:4</t>
   </si>
 </sst>
 </file>
@@ -439,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B746F5-DF93-4938-81D9-7C4E242C6158}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -480,6 +468,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -494,6 +485,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -508,6 +502,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -522,6 +519,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
@@ -536,6 +536,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -550,6 +553,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -564,6 +570,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -578,6 +587,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -592,6 +604,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -606,6 +621,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
       <c r="B12">
         <v>1</v>
       </c>
@@ -620,6 +638,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
       <c r="B13">
         <v>1</v>
       </c>
@@ -634,6 +655,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
       <c r="B14">
         <v>1</v>
       </c>
@@ -648,6 +672,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -662,6 +689,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -676,6 +706,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
       <c r="B17">
         <v>1</v>
       </c>
@@ -690,6 +723,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
       <c r="B18">
         <v>1</v>
       </c>
@@ -704,6 +740,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
       <c r="B19">
         <v>1</v>
       </c>
@@ -718,6 +757,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
       <c r="B20">
         <v>1</v>
       </c>
@@ -732,6 +774,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -763,6 +808,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
       <c r="B23">
         <v>2</v>
       </c>
@@ -777,6 +825,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
       <c r="B24">
         <v>2</v>
       </c>
@@ -791,6 +842,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
       <c r="B25">
         <v>2</v>
       </c>
@@ -805,6 +859,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
       <c r="B26">
         <v>2</v>
       </c>
@@ -819,6 +876,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
       <c r="B27">
         <v>2</v>
       </c>
@@ -833,6 +893,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
       <c r="B28">
         <v>2</v>
       </c>
@@ -847,6 +910,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
       <c r="B29">
         <v>2</v>
       </c>
@@ -861,6 +927,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
       <c r="B30">
         <v>2</v>
       </c>
@@ -875,6 +944,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
       <c r="B31">
         <v>2</v>
       </c>
@@ -889,6 +961,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
       <c r="B32">
         <v>2</v>
       </c>
@@ -903,6 +978,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
       <c r="B33">
         <v>2</v>
       </c>
@@ -917,6 +995,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
       <c r="B34">
         <v>2</v>
       </c>
@@ -931,6 +1012,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
       <c r="B35">
         <v>2</v>
       </c>
@@ -945,6 +1029,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
       <c r="B36">
         <v>2</v>
       </c>
@@ -959,6 +1046,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
       <c r="B37">
         <v>2</v>
       </c>
@@ -973,6 +1063,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
       <c r="B38">
         <v>2</v>
       </c>
@@ -987,6 +1080,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
       <c r="B39">
         <v>2</v>
       </c>
@@ -1001,6 +1097,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
       <c r="B40">
         <v>2</v>
       </c>
@@ -1015,6 +1114,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
       <c r="B41">
         <v>2</v>
       </c>
@@ -1046,6 +1148,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
       <c r="B43">
         <v>3</v>
       </c>
@@ -1060,6 +1165,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
       <c r="B44">
         <v>3</v>
       </c>
@@ -1074,6 +1182,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
       <c r="B45">
         <v>3</v>
       </c>
@@ -1088,6 +1199,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
       <c r="B46">
         <v>3</v>
       </c>
@@ -1102,6 +1216,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
       <c r="B47">
         <v>3</v>
       </c>
@@ -1116,6 +1233,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
       <c r="B48">
         <v>3</v>
       </c>
@@ -1130,6 +1250,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
       <c r="B49">
         <v>3</v>
       </c>
@@ -1144,6 +1267,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
       <c r="B50">
         <v>3</v>
       </c>
@@ -1158,6 +1284,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
       <c r="B51">
         <v>3</v>
       </c>
@@ -1172,6 +1301,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
       <c r="B52">
         <v>3</v>
       </c>
@@ -1186,6 +1318,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
       <c r="B53">
         <v>3</v>
       </c>
@@ -1200,6 +1335,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
       <c r="B54">
         <v>3</v>
       </c>
@@ -1214,6 +1352,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
       <c r="B55">
         <v>3</v>
       </c>
@@ -1228,6 +1369,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
       <c r="B56">
         <v>3</v>
       </c>
@@ -1242,6 +1386,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
       <c r="B57">
         <v>3</v>
       </c>
@@ -1256,6 +1403,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
       <c r="B58">
         <v>3</v>
       </c>
@@ -1270,6 +1420,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
       <c r="B59">
         <v>3</v>
       </c>
@@ -1284,6 +1437,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
       <c r="B60">
         <v>3</v>
       </c>
@@ -1298,6 +1454,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
       <c r="B61">
         <v>3</v>
       </c>
@@ -1313,7 +1472,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1329,6 +1488,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
       <c r="B63">
         <v>1</v>
       </c>
@@ -1343,6 +1505,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
       <c r="B64">
         <v>1</v>
       </c>
@@ -1356,7 +1521,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
       <c r="B65">
         <v>1</v>
       </c>
@@ -1370,7 +1538,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
       <c r="B66">
         <v>1</v>
       </c>
@@ -1384,7 +1555,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
       <c r="B67">
         <v>1</v>
       </c>
@@ -1398,7 +1572,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
       <c r="B68">
         <v>1</v>
       </c>
@@ -1412,7 +1589,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
       <c r="B69">
         <v>1</v>
       </c>
@@ -1426,7 +1606,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
       <c r="B70">
         <v>1</v>
       </c>
@@ -1440,7 +1623,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
       <c r="B71">
         <v>1</v>
       </c>
@@ -1454,7 +1640,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
       <c r="B72">
         <v>1</v>
       </c>
@@ -1468,7 +1657,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
       <c r="B73">
         <v>1</v>
       </c>
@@ -1482,7 +1674,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
       <c r="B74">
         <v>1</v>
       </c>
@@ -1496,7 +1691,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
       <c r="B75">
         <v>1</v>
       </c>
@@ -1510,7 +1708,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
       <c r="B76">
         <v>1</v>
       </c>
@@ -1524,7 +1725,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
       <c r="B77">
         <v>1</v>
       </c>
@@ -1538,7 +1742,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
       <c r="B78">
         <v>1</v>
       </c>
@@ -1552,7 +1759,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
       <c r="B79">
         <v>1</v>
       </c>
@@ -1566,7 +1776,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
       <c r="B80">
         <v>1</v>
       </c>
@@ -1581,6 +1794,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
       <c r="B81">
         <v>1</v>
       </c>
@@ -1596,7 +1812,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -1612,6 +1828,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
       <c r="B83">
         <v>2</v>
       </c>
@@ -1626,6 +1845,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
       <c r="B84">
         <v>2</v>
       </c>
@@ -1640,6 +1862,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
       <c r="B85">
         <v>2</v>
       </c>
@@ -1654,6 +1879,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
       <c r="B86">
         <v>2</v>
       </c>
@@ -1668,6 +1896,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
       <c r="B87">
         <v>2</v>
       </c>
@@ -1682,6 +1913,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
       <c r="B88">
         <v>2</v>
       </c>
@@ -1696,6 +1930,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
       <c r="B89">
         <v>2</v>
       </c>
@@ -1710,6 +1947,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
       <c r="B90">
         <v>2</v>
       </c>
@@ -1724,6 +1964,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
       <c r="B91">
         <v>2</v>
       </c>
@@ -1738,6 +1981,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
       <c r="B92">
         <v>2</v>
       </c>
@@ -1752,6 +1998,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
       <c r="B93">
         <v>2</v>
       </c>
@@ -1766,6 +2015,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
       <c r="B94">
         <v>2</v>
       </c>
@@ -1780,6 +2032,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
       <c r="B95">
         <v>2</v>
       </c>
@@ -1794,6 +2049,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
       <c r="B96">
         <v>2</v>
       </c>
@@ -1808,6 +2066,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
       <c r="B97">
         <v>2</v>
       </c>
@@ -1822,6 +2083,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
       <c r="B98">
         <v>2</v>
       </c>
@@ -1836,6 +2100,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
       <c r="B99">
         <v>2</v>
       </c>
@@ -1850,6 +2117,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
       <c r="B100">
         <v>2</v>
       </c>
@@ -1864,6 +2134,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
       <c r="B101">
         <v>2</v>
       </c>
@@ -1879,7 +2152,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -1895,6 +2168,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
       <c r="B103">
         <v>3</v>
       </c>
@@ -1909,6 +2185,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
       <c r="B104">
         <v>3</v>
       </c>
@@ -1923,6 +2202,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
       <c r="B105">
         <v>3</v>
       </c>
@@ -1937,6 +2219,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
       <c r="B106">
         <v>3</v>
       </c>
@@ -1951,6 +2236,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
       <c r="B107">
         <v>3</v>
       </c>
@@ -1965,6 +2253,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
       <c r="B108">
         <v>3</v>
       </c>
@@ -1979,6 +2270,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
       <c r="B109">
         <v>3</v>
       </c>
@@ -1993,6 +2287,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
       <c r="B110">
         <v>3</v>
       </c>
@@ -2007,6 +2304,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
       <c r="B111">
         <v>3</v>
       </c>
@@ -2021,6 +2321,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
       <c r="B112">
         <v>3</v>
       </c>
@@ -2035,6 +2338,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
       <c r="B113">
         <v>3</v>
       </c>
@@ -2049,6 +2355,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
       <c r="B114">
         <v>3</v>
       </c>
@@ -2063,6 +2372,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
       <c r="B115">
         <v>3</v>
       </c>
@@ -2077,6 +2389,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
       <c r="B116">
         <v>3</v>
       </c>
@@ -2091,6 +2406,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
       <c r="B117">
         <v>3</v>
       </c>
@@ -2105,6 +2423,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
       <c r="B118">
         <v>3</v>
       </c>
@@ -2119,6 +2440,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
       <c r="B119">
         <v>3</v>
       </c>
@@ -2133,6 +2457,9 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
       <c r="B120">
         <v>3</v>
       </c>
@@ -2147,6 +2474,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
       <c r="B121">
         <v>3</v>
       </c>
@@ -2162,7 +2492,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2178,6 +2508,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
       <c r="B123">
         <v>1</v>
       </c>
@@ -2192,6 +2525,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
       <c r="B124">
         <v>1</v>
       </c>
@@ -2206,6 +2542,9 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
       <c r="B125">
         <v>1</v>
       </c>
@@ -2220,6 +2559,9 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
       <c r="B126">
         <v>1</v>
       </c>
@@ -2234,6 +2576,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
       <c r="B127">
         <v>1</v>
       </c>
@@ -2248,6 +2593,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
       <c r="B128">
         <v>1</v>
       </c>
@@ -2262,6 +2610,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
       <c r="B129">
         <v>1</v>
       </c>
@@ -2276,6 +2627,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
       <c r="B130">
         <v>1</v>
       </c>
@@ -2290,6 +2644,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
       <c r="B131">
         <v>1</v>
       </c>
@@ -2304,6 +2661,9 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
       <c r="B132">
         <v>1</v>
       </c>
@@ -2318,6 +2678,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
       <c r="B133">
         <v>1</v>
       </c>
@@ -2332,6 +2695,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
       <c r="B134">
         <v>1</v>
       </c>
@@ -2346,6 +2712,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
       <c r="B135">
         <v>1</v>
       </c>
@@ -2360,6 +2729,9 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
       <c r="B136">
         <v>1</v>
       </c>
@@ -2374,6 +2746,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
       <c r="B137">
         <v>1</v>
       </c>
@@ -2388,6 +2763,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
       <c r="B138">
         <v>1</v>
       </c>
@@ -2402,6 +2780,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
       <c r="B139">
         <v>1</v>
       </c>
@@ -2416,6 +2797,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
       <c r="B140">
         <v>1</v>
       </c>
@@ -2430,6 +2814,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
       <c r="B141">
         <v>1</v>
       </c>
@@ -2445,7 +2832,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -2461,6 +2848,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
       <c r="B143">
         <v>2</v>
       </c>
@@ -2475,6 +2865,9 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
       <c r="B144">
         <v>2</v>
       </c>
@@ -2488,7 +2881,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
       <c r="B145">
         <v>2</v>
       </c>
@@ -2502,7 +2898,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
       <c r="B146">
         <v>2</v>
       </c>
@@ -2516,7 +2915,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
       <c r="B147">
         <v>2</v>
       </c>
@@ -2524,13 +2926,16 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
       <c r="B148">
         <v>2</v>
       </c>
@@ -2538,13 +2943,16 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
       <c r="B149">
         <v>2</v>
       </c>
@@ -2552,13 +2960,16 @@
         <v>8</v>
       </c>
       <c r="D149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
       <c r="B150">
         <v>2</v>
       </c>
@@ -2566,13 +2977,16 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
       <c r="B151">
         <v>2</v>
       </c>
@@ -2580,13 +2994,16 @@
         <v>10</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
       <c r="B152">
         <v>2</v>
       </c>
@@ -2594,13 +3011,16 @@
         <v>11</v>
       </c>
       <c r="D152">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
       <c r="B153">
         <v>2</v>
       </c>
@@ -2608,13 +3028,16 @@
         <v>12</v>
       </c>
       <c r="D153">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
       <c r="B154">
         <v>2</v>
       </c>
@@ -2628,7 +3051,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
       <c r="B155">
         <v>2</v>
       </c>
@@ -2642,7 +3068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
       <c r="B156">
         <v>2</v>
       </c>
@@ -2656,7 +3085,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
       <c r="B157">
         <v>2</v>
       </c>
@@ -2670,7 +3102,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
       <c r="B158">
         <v>2</v>
       </c>
@@ -2684,7 +3119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
       <c r="B159">
         <v>2</v>
       </c>
@@ -2698,7 +3136,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
       <c r="B160">
         <v>2</v>
       </c>
@@ -2713,6 +3154,9 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
       <c r="B161">
         <v>2</v>
       </c>
@@ -2728,7 +3172,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -2744,6 +3188,9 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
       <c r="B163">
         <v>3</v>
       </c>
@@ -2758,6 +3205,9 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
       <c r="B164">
         <v>3</v>
       </c>
@@ -2772,6 +3222,9 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
       <c r="B165">
         <v>3</v>
       </c>
@@ -2786,6 +3239,9 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
       <c r="B166">
         <v>3</v>
       </c>
@@ -2800,6 +3256,9 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
       <c r="B167">
         <v>3</v>
       </c>
@@ -2814,6 +3273,9 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
       <c r="B168">
         <v>3</v>
       </c>
@@ -2828,6 +3290,9 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
       <c r="B169">
         <v>3</v>
       </c>
@@ -2842,6 +3307,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
       <c r="B170">
         <v>3</v>
       </c>
@@ -2856,6 +3324,9 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
       <c r="B171">
         <v>3</v>
       </c>
@@ -2870,6 +3341,9 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
       <c r="B172">
         <v>3</v>
       </c>
@@ -2884,6 +3358,9 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
       <c r="B173">
         <v>3</v>
       </c>
@@ -2898,6 +3375,9 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
       <c r="B174">
         <v>3</v>
       </c>
@@ -2912,6 +3392,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
       <c r="B175">
         <v>3</v>
       </c>
@@ -2926,6 +3409,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
       <c r="B176">
         <v>3</v>
       </c>
@@ -2940,6 +3426,9 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
       <c r="B177">
         <v>3</v>
       </c>
@@ -2954,6 +3443,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
       <c r="B178">
         <v>3</v>
       </c>
@@ -2968,6 +3460,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
       <c r="B179">
         <v>3</v>
       </c>
@@ -2982,6 +3477,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
       <c r="B180">
         <v>3</v>
       </c>
@@ -2996,6 +3494,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
       <c r="B181">
         <v>3</v>
       </c>
@@ -3011,7 +3512,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3027,6 +3528,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
       <c r="B183">
         <v>1</v>
       </c>
@@ -3041,6 +3545,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
       <c r="B184">
         <v>1</v>
       </c>
@@ -3055,6 +3562,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
       <c r="B185">
         <v>1</v>
       </c>
@@ -3069,6 +3579,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
       <c r="B186">
         <v>1</v>
       </c>
@@ -3083,6 +3596,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
       <c r="B187">
         <v>1</v>
       </c>
@@ -3097,6 +3613,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
       <c r="B188">
         <v>1</v>
       </c>
@@ -3111,6 +3630,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
       <c r="B189">
         <v>1</v>
       </c>
@@ -3125,6 +3647,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
       <c r="B190">
         <v>1</v>
       </c>
@@ -3139,6 +3664,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
       <c r="B191">
         <v>1</v>
       </c>
@@ -3153,6 +3681,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
       <c r="B192">
         <v>1</v>
       </c>
@@ -3167,6 +3698,9 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
       <c r="B193">
         <v>1</v>
       </c>
@@ -3181,6 +3715,9 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
       <c r="B194">
         <v>1</v>
       </c>
@@ -3195,6 +3732,9 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
       <c r="B195">
         <v>1</v>
       </c>
@@ -3209,6 +3749,9 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
       <c r="B196">
         <v>1</v>
       </c>
@@ -3223,6 +3766,9 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
       <c r="B197">
         <v>1</v>
       </c>
@@ -3237,6 +3783,9 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
       <c r="B198">
         <v>1</v>
       </c>
@@ -3251,6 +3800,9 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
       <c r="B199">
         <v>1</v>
       </c>
@@ -3265,6 +3817,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
       <c r="B200">
         <v>1</v>
       </c>
@@ -3279,6 +3834,9 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
       <c r="B201">
         <v>1</v>
       </c>
@@ -3294,7 +3852,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -3310,6 +3868,9 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
       <c r="B203">
         <v>2</v>
       </c>
@@ -3324,6 +3885,9 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
       <c r="B204">
         <v>2</v>
       </c>
@@ -3338,6 +3902,9 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
       <c r="B205">
         <v>2</v>
       </c>
@@ -3352,6 +3919,9 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
       <c r="B206">
         <v>2</v>
       </c>
@@ -3366,6 +3936,9 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
       <c r="B207">
         <v>2</v>
       </c>
@@ -3380,6 +3953,9 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
       <c r="B208">
         <v>2</v>
       </c>
@@ -3394,6 +3970,9 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
       <c r="B209">
         <v>2</v>
       </c>
@@ -3408,6 +3987,9 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
       <c r="B210">
         <v>2</v>
       </c>
@@ -3422,6 +4004,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
       <c r="B211">
         <v>2</v>
       </c>
@@ -3436,6 +4021,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
       <c r="B212">
         <v>2</v>
       </c>
@@ -3450,6 +4038,9 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
       <c r="B213">
         <v>2</v>
       </c>
@@ -3464,6 +4055,9 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
       <c r="B214">
         <v>2</v>
       </c>
@@ -3478,6 +4072,9 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
       <c r="B215">
         <v>2</v>
       </c>
@@ -3492,6 +4089,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
       <c r="B216">
         <v>2</v>
       </c>
@@ -3506,6 +4106,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
       <c r="B217">
         <v>2</v>
       </c>
@@ -3520,6 +4123,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
       <c r="B218">
         <v>2</v>
       </c>
@@ -3534,6 +4140,9 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
       <c r="B219">
         <v>2</v>
       </c>
@@ -3548,6 +4157,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>8</v>
+      </c>
       <c r="B220">
         <v>2</v>
       </c>
@@ -3562,6 +4174,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
       <c r="B221">
         <v>2</v>
       </c>
@@ -3577,7 +4192,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -3593,6 +4208,9 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
       <c r="B223">
         <v>3</v>
       </c>
@@ -3607,6 +4225,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
       <c r="B224">
         <v>3</v>
       </c>
@@ -3620,7 +4241,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
       <c r="B225">
         <v>3</v>
       </c>
@@ -3634,7 +4258,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
       <c r="B226">
         <v>3</v>
       </c>
@@ -3648,7 +4275,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
       <c r="B227">
         <v>3</v>
       </c>
@@ -3662,7 +4292,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
       <c r="B228">
         <v>3</v>
       </c>
@@ -3676,7 +4309,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
       <c r="B229">
         <v>3</v>
       </c>
@@ -3690,7 +4326,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
       <c r="B230">
         <v>3</v>
       </c>
@@ -3704,7 +4343,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>8</v>
+      </c>
       <c r="B231">
         <v>3</v>
       </c>
@@ -3718,7 +4360,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
       <c r="B232">
         <v>3</v>
       </c>
@@ -3732,7 +4377,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
       <c r="B233">
         <v>3</v>
       </c>
@@ -3746,7 +4394,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
       <c r="B234">
         <v>3</v>
       </c>
@@ -3760,7 +4411,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
       <c r="B235">
         <v>3</v>
       </c>
@@ -3774,7 +4428,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>8</v>
+      </c>
       <c r="B236">
         <v>3</v>
       </c>
@@ -3788,7 +4445,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
       <c r="B237">
         <v>3</v>
       </c>
@@ -3802,7 +4462,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>8</v>
+      </c>
       <c r="B238">
         <v>3</v>
       </c>
@@ -3816,7 +4479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>8</v>
+      </c>
       <c r="B239">
         <v>3</v>
       </c>
@@ -3830,7 +4496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>8</v>
+      </c>
       <c r="B240">
         <v>3</v>
       </c>
@@ -3845,6 +4514,9 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>8</v>
+      </c>
       <c r="B241">
         <v>3</v>
       </c>
@@ -3860,7 +4532,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -3876,6 +4548,9 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
       <c r="B243">
         <v>1</v>
       </c>
@@ -3890,6 +4565,9 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
       <c r="B244">
         <v>1</v>
       </c>
@@ -3904,6 +4582,9 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
       <c r="B245">
         <v>1</v>
       </c>
@@ -3918,6 +4599,9 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
       <c r="B246">
         <v>1</v>
       </c>
@@ -3932,6 +4616,9 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
       <c r="B247">
         <v>1</v>
       </c>
@@ -3946,6 +4633,9 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
       <c r="B248">
         <v>1</v>
       </c>
@@ -3960,6 +4650,9 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
       <c r="B249">
         <v>1</v>
       </c>
@@ -3974,6 +4667,9 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
       <c r="B250">
         <v>1</v>
       </c>
@@ -3988,6 +4684,9 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
       <c r="B251">
         <v>1</v>
       </c>
@@ -4002,6 +4701,9 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
       <c r="B252">
         <v>1</v>
       </c>
@@ -4016,6 +4718,9 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>9</v>
+      </c>
       <c r="B253">
         <v>1</v>
       </c>
@@ -4030,6 +4735,9 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>9</v>
+      </c>
       <c r="B254">
         <v>1</v>
       </c>
@@ -4044,6 +4752,9 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
       <c r="B255">
         <v>1</v>
       </c>
@@ -4058,6 +4769,9 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
       <c r="B256">
         <v>1</v>
       </c>
@@ -4072,6 +4786,9 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
       <c r="B257">
         <v>1</v>
       </c>
@@ -4086,6 +4803,9 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
       <c r="B258">
         <v>1</v>
       </c>
@@ -4100,6 +4820,9 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>9</v>
+      </c>
       <c r="B259">
         <v>1</v>
       </c>
@@ -4114,6 +4837,9 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
       <c r="B260">
         <v>1</v>
       </c>
@@ -4128,6 +4854,9 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>9</v>
+      </c>
       <c r="B261">
         <v>1</v>
       </c>
@@ -4143,7 +4872,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -4159,6 +4888,9 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
       <c r="B263">
         <v>2</v>
       </c>
@@ -4173,6 +4905,9 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
       <c r="B264">
         <v>2</v>
       </c>
@@ -4187,6 +4922,9 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
       <c r="B265">
         <v>2</v>
       </c>
@@ -4201,6 +4939,9 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
       <c r="B266">
         <v>2</v>
       </c>
@@ -4215,6 +4956,9 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
       <c r="B267">
         <v>2</v>
       </c>
@@ -4229,6 +4973,9 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>9</v>
+      </c>
       <c r="B268">
         <v>2</v>
       </c>
@@ -4243,6 +4990,9 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
       <c r="B269">
         <v>2</v>
       </c>
@@ -4257,6 +5007,9 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
       <c r="B270">
         <v>2</v>
       </c>
@@ -4271,6 +5024,9 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
       <c r="B271">
         <v>2</v>
       </c>
@@ -4285,6 +5041,9 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
       <c r="B272">
         <v>2</v>
       </c>
@@ -4299,6 +5058,9 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
       <c r="B273">
         <v>2</v>
       </c>
@@ -4313,6 +5075,9 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>9</v>
+      </c>
       <c r="B274">
         <v>2</v>
       </c>
@@ -4327,6 +5092,9 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
       <c r="B275">
         <v>2</v>
       </c>
@@ -4341,6 +5109,9 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
       <c r="B276">
         <v>2</v>
       </c>
@@ -4355,6 +5126,9 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>9</v>
+      </c>
       <c r="B277">
         <v>2</v>
       </c>
@@ -4369,6 +5143,9 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
       <c r="B278">
         <v>2</v>
       </c>
@@ -4383,6 +5160,9 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
       <c r="B279">
         <v>2</v>
       </c>
@@ -4397,6 +5177,9 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>9</v>
+      </c>
       <c r="B280">
         <v>2</v>
       </c>
@@ -4411,6 +5194,9 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
       <c r="B281">
         <v>2</v>
       </c>
@@ -4426,7 +5212,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -4442,6 +5228,9 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
       <c r="B283">
         <v>3</v>
       </c>
@@ -4456,6 +5245,9 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
       <c r="B284">
         <v>3</v>
       </c>
@@ -4470,6 +5262,9 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
       <c r="B285">
         <v>3</v>
       </c>
@@ -4484,6 +5279,9 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
       <c r="B286">
         <v>3</v>
       </c>
@@ -4498,6 +5296,9 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
       <c r="B287">
         <v>3</v>
       </c>
@@ -4512,6 +5313,9 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
       <c r="B288">
         <v>3</v>
       </c>
@@ -4526,6 +5330,9 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
       <c r="B289">
         <v>3</v>
       </c>
@@ -4540,6 +5347,9 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
       <c r="B290">
         <v>3</v>
       </c>
@@ -4554,6 +5364,9 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>9</v>
+      </c>
       <c r="B291">
         <v>3</v>
       </c>
@@ -4568,6 +5381,9 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
       <c r="B292">
         <v>3</v>
       </c>
@@ -4582,6 +5398,9 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
       <c r="B293">
         <v>3</v>
       </c>
@@ -4596,6 +5415,9 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
       <c r="B294">
         <v>3</v>
       </c>
@@ -4610,6 +5432,9 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>9</v>
+      </c>
       <c r="B295">
         <v>3</v>
       </c>
@@ -4624,6 +5449,9 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
       <c r="B296">
         <v>3</v>
       </c>
@@ -4638,6 +5466,9 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>9</v>
+      </c>
       <c r="B297">
         <v>3</v>
       </c>
@@ -4652,6 +5483,9 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>9</v>
+      </c>
       <c r="B298">
         <v>3</v>
       </c>
@@ -4666,6 +5500,9 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>9</v>
+      </c>
       <c r="B299">
         <v>3</v>
       </c>
@@ -4680,6 +5517,9 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>9</v>
+      </c>
       <c r="B300">
         <v>3</v>
       </c>
@@ -4694,6 +5534,9 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>9</v>
+      </c>
       <c r="B301">
         <v>3</v>
       </c>
@@ -4709,7 +5552,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -4725,6 +5568,9 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
       <c r="B303">
         <v>1</v>
       </c>
@@ -4739,6 +5585,9 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
       <c r="B304">
         <v>1</v>
       </c>
@@ -4752,7 +5601,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
       <c r="B305">
         <v>1</v>
       </c>
@@ -4766,7 +5618,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
       <c r="B306">
         <v>1</v>
       </c>
@@ -4780,7 +5635,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
       <c r="B307">
         <v>1</v>
       </c>
@@ -4794,7 +5652,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
       <c r="B308">
         <v>1</v>
       </c>
@@ -4808,7 +5669,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
       <c r="B309">
         <v>1</v>
       </c>
@@ -4822,7 +5686,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
       <c r="B310">
         <v>1</v>
       </c>
@@ -4836,7 +5703,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
       <c r="B311">
         <v>1</v>
       </c>
@@ -4850,7 +5720,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
       <c r="B312">
         <v>1</v>
       </c>
@@ -4858,13 +5731,16 @@
         <v>11</v>
       </c>
       <c r="D312">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
       <c r="B313">
         <v>1</v>
       </c>
@@ -4872,13 +5748,16 @@
         <v>12</v>
       </c>
       <c r="D313">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
       <c r="B314">
         <v>1</v>
       </c>
@@ -4892,7 +5771,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
       <c r="B315">
         <v>1</v>
       </c>
@@ -4906,7 +5788,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
       <c r="B316">
         <v>1</v>
       </c>
@@ -4920,7 +5805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
       <c r="B317">
         <v>1</v>
       </c>
@@ -4934,7 +5822,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
       <c r="B318">
         <v>1</v>
       </c>
@@ -4948,7 +5839,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
       <c r="B319">
         <v>1</v>
       </c>
@@ -4962,7 +5856,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
       <c r="B320">
         <v>1</v>
       </c>
@@ -4977,6 +5874,9 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
       <c r="B321">
         <v>1</v>
       </c>
@@ -4992,7 +5892,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -5008,6 +5908,9 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>10</v>
+      </c>
       <c r="B323">
         <v>2</v>
       </c>
@@ -5022,6 +5925,9 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
       <c r="B324">
         <v>2</v>
       </c>
@@ -5036,6 +5942,9 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
       <c r="B325">
         <v>2</v>
       </c>
@@ -5050,6 +5959,9 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
       <c r="B326">
         <v>2</v>
       </c>
@@ -5064,6 +5976,9 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
       <c r="B327">
         <v>2</v>
       </c>
@@ -5078,6 +5993,9 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
       <c r="B328">
         <v>2</v>
       </c>
@@ -5092,6 +6010,9 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
       <c r="B329">
         <v>2</v>
       </c>
@@ -5106,6 +6027,9 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
       <c r="B330">
         <v>2</v>
       </c>
@@ -5120,6 +6044,9 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
       <c r="B331">
         <v>2</v>
       </c>
@@ -5134,6 +6061,9 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
       <c r="B332">
         <v>2</v>
       </c>
@@ -5148,6 +6078,9 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
       <c r="B333">
         <v>2</v>
       </c>
@@ -5162,6 +6095,9 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
       <c r="B334">
         <v>2</v>
       </c>
@@ -5169,13 +6105,16 @@
         <v>13</v>
       </c>
       <c r="D334">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>10</v>
+      </c>
       <c r="B335">
         <v>2</v>
       </c>
@@ -5190,6 +6129,9 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
       <c r="B336">
         <v>2</v>
       </c>
@@ -5204,6 +6146,9 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
       <c r="B337">
         <v>2</v>
       </c>
@@ -5218,6 +6163,9 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
       <c r="B338">
         <v>2</v>
       </c>
@@ -5232,6 +6180,9 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
       <c r="B339">
         <v>2</v>
       </c>
@@ -5246,6 +6197,9 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
       <c r="B340">
         <v>2</v>
       </c>
@@ -5260,6 +6214,9 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
       <c r="B341">
         <v>2</v>
       </c>
@@ -5275,7 +6232,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -5291,6 +6248,9 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
       <c r="B343">
         <v>3</v>
       </c>
@@ -5305,6 +6265,9 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
       <c r="B344">
         <v>3</v>
       </c>
@@ -5319,6 +6282,9 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
       <c r="B345">
         <v>3</v>
       </c>
@@ -5333,6 +6299,9 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
       <c r="B346">
         <v>3</v>
       </c>
@@ -5347,6 +6316,9 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
       <c r="B347">
         <v>3</v>
       </c>
@@ -5361,6 +6333,9 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
       <c r="B348">
         <v>3</v>
       </c>
@@ -5375,6 +6350,9 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
       <c r="B349">
         <v>3</v>
       </c>
@@ -5389,6 +6367,9 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
       <c r="B350">
         <v>3</v>
       </c>
@@ -5403,6 +6384,9 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
       <c r="B351">
         <v>3</v>
       </c>
@@ -5417,6 +6401,9 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
       <c r="B352">
         <v>3</v>
       </c>
@@ -5431,6 +6418,9 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
       <c r="B353">
         <v>3</v>
       </c>
@@ -5445,6 +6435,9 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
       <c r="B354">
         <v>3</v>
       </c>
@@ -5459,6 +6452,9 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
       <c r="B355">
         <v>3</v>
       </c>
@@ -5473,6 +6469,9 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
       <c r="B356">
         <v>3</v>
       </c>
@@ -5487,6 +6486,9 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
       <c r="B357">
         <v>3</v>
       </c>
@@ -5501,6 +6503,9 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>10</v>
+      </c>
       <c r="B358">
         <v>3</v>
       </c>
@@ -5515,6 +6520,9 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
       <c r="B359">
         <v>3</v>
       </c>
@@ -5529,6 +6537,9 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
       <c r="B360">
         <v>3</v>
       </c>
@@ -5543,6 +6554,9 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
       <c r="B361">
         <v>3</v>
       </c>
@@ -5558,7 +6572,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -5574,6 +6588,9 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>11</v>
+      </c>
       <c r="B363">
         <v>1</v>
       </c>
@@ -5588,6 +6605,9 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
       <c r="B364">
         <v>1</v>
       </c>
@@ -5602,6 +6622,9 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>11</v>
+      </c>
       <c r="B365">
         <v>1</v>
       </c>
@@ -5616,6 +6639,9 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>11</v>
+      </c>
       <c r="B366">
         <v>1</v>
       </c>
@@ -5630,6 +6656,9 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
       <c r="B367">
         <v>1</v>
       </c>
@@ -5644,6 +6673,9 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
       <c r="B368">
         <v>1</v>
       </c>
@@ -5658,6 +6690,9 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
       <c r="B369">
         <v>1</v>
       </c>
@@ -5672,6 +6707,9 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
       <c r="B370">
         <v>1</v>
       </c>
@@ -5686,6 +6724,9 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>11</v>
+      </c>
       <c r="B371">
         <v>1</v>
       </c>
@@ -5700,6 +6741,9 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
       <c r="B372">
         <v>1</v>
       </c>
@@ -5714,6 +6758,9 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>11</v>
+      </c>
       <c r="B373">
         <v>1</v>
       </c>
@@ -5728,6 +6775,9 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>11</v>
+      </c>
       <c r="B374">
         <v>1</v>
       </c>
@@ -5742,6 +6792,9 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>11</v>
+      </c>
       <c r="B375">
         <v>1</v>
       </c>
@@ -5756,6 +6809,9 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
       <c r="B376">
         <v>1</v>
       </c>
@@ -5770,6 +6826,9 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>11</v>
+      </c>
       <c r="B377">
         <v>1</v>
       </c>
@@ -5784,6 +6843,9 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
       <c r="B378">
         <v>1</v>
       </c>
@@ -5798,6 +6860,9 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
       <c r="B379">
         <v>1</v>
       </c>
@@ -5812,6 +6877,9 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
       <c r="B380">
         <v>1</v>
       </c>
@@ -5826,6 +6894,9 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
       <c r="B381">
         <v>1</v>
       </c>
@@ -5841,7 +6912,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -5857,6 +6928,9 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>11</v>
+      </c>
       <c r="B383">
         <v>2</v>
       </c>
@@ -5871,6 +6945,9 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>11</v>
+      </c>
       <c r="B384">
         <v>2</v>
       </c>
@@ -5884,7 +6961,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
       <c r="B385">
         <v>2</v>
       </c>
@@ -5898,7 +6978,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
       <c r="B386">
         <v>2</v>
       </c>
@@ -5912,7 +6995,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
       <c r="B387">
         <v>2</v>
       </c>
@@ -5926,7 +7012,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
       <c r="B388">
         <v>2</v>
       </c>
@@ -5940,7 +7029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>11</v>
+      </c>
       <c r="B389">
         <v>2</v>
       </c>
@@ -5954,7 +7046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>11</v>
+      </c>
       <c r="B390">
         <v>2</v>
       </c>
@@ -5968,7 +7063,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
       <c r="B391">
         <v>2</v>
       </c>
@@ -5982,7 +7080,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
       <c r="B392">
         <v>2</v>
       </c>
@@ -5996,7 +7097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
       <c r="B393">
         <v>2</v>
       </c>
@@ -6010,7 +7114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>11</v>
+      </c>
       <c r="B394">
         <v>2</v>
       </c>
@@ -6024,7 +7131,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
       <c r="B395">
         <v>2</v>
       </c>
@@ -6038,7 +7148,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>11</v>
+      </c>
       <c r="B396">
         <v>2</v>
       </c>
@@ -6052,7 +7165,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
       <c r="B397">
         <v>2</v>
       </c>
@@ -6066,7 +7182,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
       <c r="B398">
         <v>2</v>
       </c>
@@ -6080,7 +7199,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
       <c r="B399">
         <v>2</v>
       </c>
@@ -6094,7 +7216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
       <c r="B400">
         <v>2</v>
       </c>
@@ -6109,6 +7234,9 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>11</v>
+      </c>
       <c r="B401">
         <v>2</v>
       </c>
@@ -6124,7 +7252,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B402">
         <v>3</v>
@@ -6140,6 +7268,9 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>11</v>
+      </c>
       <c r="B403">
         <v>3</v>
       </c>
@@ -6154,6 +7285,9 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>11</v>
+      </c>
       <c r="B404">
         <v>3</v>
       </c>
@@ -6168,6 +7302,9 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>11</v>
+      </c>
       <c r="B405">
         <v>3</v>
       </c>
@@ -6182,6 +7319,9 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
       <c r="B406">
         <v>3</v>
       </c>
@@ -6196,6 +7336,9 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>11</v>
+      </c>
       <c r="B407">
         <v>3</v>
       </c>
@@ -6210,6 +7353,9 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>11</v>
+      </c>
       <c r="B408">
         <v>3</v>
       </c>
@@ -6224,6 +7370,9 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>11</v>
+      </c>
       <c r="B409">
         <v>3</v>
       </c>
@@ -6238,6 +7387,9 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
       <c r="B410">
         <v>3</v>
       </c>
@@ -6252,6 +7404,9 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
       <c r="B411">
         <v>3</v>
       </c>
@@ -6266,6 +7421,9 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>11</v>
+      </c>
       <c r="B412">
         <v>3</v>
       </c>
@@ -6280,6 +7438,9 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>11</v>
+      </c>
       <c r="B413">
         <v>3</v>
       </c>
@@ -6294,6 +7455,9 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
       <c r="B414">
         <v>3</v>
       </c>
@@ -6308,6 +7472,9 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>11</v>
+      </c>
       <c r="B415">
         <v>3</v>
       </c>
@@ -6322,6 +7489,9 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>11</v>
+      </c>
       <c r="B416">
         <v>3</v>
       </c>
@@ -6336,6 +7506,9 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>11</v>
+      </c>
       <c r="B417">
         <v>3</v>
       </c>
@@ -6350,6 +7523,9 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>11</v>
+      </c>
       <c r="B418">
         <v>3</v>
       </c>
@@ -6364,6 +7540,9 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
       <c r="B419">
         <v>3</v>
       </c>
@@ -6378,6 +7557,9 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>11</v>
+      </c>
       <c r="B420">
         <v>3</v>
       </c>
@@ -6392,6 +7574,9 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>11</v>
+      </c>
       <c r="B421">
         <v>3</v>
       </c>
@@ -6407,7 +7592,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6423,6 +7608,9 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
       <c r="B423">
         <v>1</v>
       </c>
@@ -6437,6 +7625,9 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>12</v>
+      </c>
       <c r="B424">
         <v>1</v>
       </c>
@@ -6451,6 +7642,9 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>12</v>
+      </c>
       <c r="B425">
         <v>1</v>
       </c>
@@ -6465,6 +7659,9 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
       <c r="B426">
         <v>1</v>
       </c>
@@ -6479,6 +7676,9 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
       <c r="B427">
         <v>1</v>
       </c>
@@ -6493,6 +7693,9 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>12</v>
+      </c>
       <c r="B428">
         <v>1</v>
       </c>
@@ -6507,6 +7710,9 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>12</v>
+      </c>
       <c r="B429">
         <v>1</v>
       </c>
@@ -6521,6 +7727,9 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>12</v>
+      </c>
       <c r="B430">
         <v>1</v>
       </c>
@@ -6535,6 +7744,9 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>12</v>
+      </c>
       <c r="B431">
         <v>1</v>
       </c>
@@ -6549,6 +7761,9 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>12</v>
+      </c>
       <c r="B432">
         <v>1</v>
       </c>
@@ -6563,6 +7778,9 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>12</v>
+      </c>
       <c r="B433">
         <v>1</v>
       </c>
@@ -6577,6 +7795,9 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>12</v>
+      </c>
       <c r="B434">
         <v>1</v>
       </c>
@@ -6591,6 +7812,9 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>12</v>
+      </c>
       <c r="B435">
         <v>1</v>
       </c>
@@ -6605,6 +7829,9 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
       <c r="B436">
         <v>1</v>
       </c>
@@ -6619,6 +7846,9 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
       <c r="B437">
         <v>1</v>
       </c>
@@ -6633,6 +7863,9 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>12</v>
+      </c>
       <c r="B438">
         <v>1</v>
       </c>
@@ -6647,6 +7880,9 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
       <c r="B439">
         <v>1</v>
       </c>
@@ -6661,6 +7897,9 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
       <c r="B440">
         <v>1</v>
       </c>
@@ -6675,6 +7914,9 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
       <c r="B441">
         <v>1</v>
       </c>
@@ -6690,7 +7932,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -6706,6 +7948,9 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>12</v>
+      </c>
       <c r="B443">
         <v>2</v>
       </c>
@@ -6720,6 +7965,9 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
       <c r="B444">
         <v>2</v>
       </c>
@@ -6734,6 +7982,9 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
       <c r="B445">
         <v>2</v>
       </c>
@@ -6748,6 +7999,9 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
       <c r="B446">
         <v>2</v>
       </c>
@@ -6762,6 +8016,9 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>12</v>
+      </c>
       <c r="B447">
         <v>2</v>
       </c>
@@ -6776,6 +8033,9 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>12</v>
+      </c>
       <c r="B448">
         <v>2</v>
       </c>
@@ -6790,6 +8050,9 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>12</v>
+      </c>
       <c r="B449">
         <v>2</v>
       </c>
@@ -6804,6 +8067,9 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>12</v>
+      </c>
       <c r="B450">
         <v>2</v>
       </c>
@@ -6818,6 +8084,9 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>12</v>
+      </c>
       <c r="B451">
         <v>2</v>
       </c>
@@ -6832,6 +8101,9 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
       <c r="B452">
         <v>2</v>
       </c>
@@ -6846,6 +8118,9 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>12</v>
+      </c>
       <c r="B453">
         <v>2</v>
       </c>
@@ -6860,6 +8135,9 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
       <c r="B454">
         <v>2</v>
       </c>
@@ -6874,6 +8152,9 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>12</v>
+      </c>
       <c r="B455">
         <v>2</v>
       </c>
@@ -6888,6 +8169,9 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>12</v>
+      </c>
       <c r="B456">
         <v>2</v>
       </c>
@@ -6902,6 +8186,9 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
       <c r="B457">
         <v>2</v>
       </c>
@@ -6916,6 +8203,9 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
       <c r="B458">
         <v>2</v>
       </c>
@@ -6930,6 +8220,9 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>12</v>
+      </c>
       <c r="B459">
         <v>2</v>
       </c>
@@ -6944,6 +8237,9 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
       <c r="B460">
         <v>2</v>
       </c>
@@ -6958,6 +8254,9 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>12</v>
+      </c>
       <c r="B461">
         <v>2</v>
       </c>
@@ -6973,7 +8272,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B462">
         <v>3</v>
@@ -6989,6 +8288,9 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>12</v>
+      </c>
       <c r="B463">
         <v>3</v>
       </c>
@@ -7003,6 +8305,9 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>12</v>
+      </c>
       <c r="B464">
         <v>3</v>
       </c>
@@ -7016,7 +8321,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
       <c r="B465">
         <v>3</v>
       </c>
@@ -7030,7 +8338,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>12</v>
+      </c>
       <c r="B466">
         <v>3</v>
       </c>
@@ -7044,7 +8355,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
       <c r="B467">
         <v>3</v>
       </c>
@@ -7058,7 +8372,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>12</v>
+      </c>
       <c r="B468">
         <v>3</v>
       </c>
@@ -7072,7 +8389,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
       <c r="B469">
         <v>3</v>
       </c>
@@ -7086,7 +8406,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>12</v>
+      </c>
       <c r="B470">
         <v>3</v>
       </c>
@@ -7100,7 +8423,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>12</v>
+      </c>
       <c r="B471">
         <v>3</v>
       </c>
@@ -7114,7 +8440,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>12</v>
+      </c>
       <c r="B472">
         <v>3</v>
       </c>
@@ -7128,7 +8457,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
       <c r="B473">
         <v>3</v>
       </c>
@@ -7142,7 +8474,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
       <c r="B474">
         <v>3</v>
       </c>
@@ -7156,7 +8491,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
       <c r="B475">
         <v>3</v>
       </c>
@@ -7170,7 +8508,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>12</v>
+      </c>
       <c r="B476">
         <v>3</v>
       </c>
@@ -7184,7 +8525,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
       <c r="B477">
         <v>3</v>
       </c>
@@ -7198,7 +8542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
       <c r="B478">
         <v>3</v>
       </c>
@@ -7212,7 +8559,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>12</v>
+      </c>
       <c r="B479">
         <v>3</v>
       </c>
@@ -7226,7 +8576,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>12</v>
+      </c>
       <c r="B480">
         <v>3</v>
       </c>
@@ -7240,7 +8593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>12</v>
+      </c>
       <c r="B481">
         <v>3</v>
       </c>
